--- a/sources/case/Locations.xlsx
+++ b/sources/case/Locations.xlsx
@@ -21,130 +21,147 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="39">
   <si>
     <t>Description</t>
   </si>
   <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>新增打卡地点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/attendance/v1/locations</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>province</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>longitude</t>
+  </si>
+  <si>
+    <t>latitude</t>
+  </si>
+  <si>
+    <t>range</t>
+  </si>
+  <si>
+    <t>apply_scope</t>
+  </si>
+  <si>
+    <t>CaseID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Locations_Add_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兆维小区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京市朝阳区酒仙桥街道兆维小区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"type":"all"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"type":"all","val":null}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Locations_Add_02</t>
+  </si>
+  <si>
+    <t>育新花园(育新花园西路)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京市海淀区西三旗街道育新花园育新花园(育新花园西路)</t>
+  </si>
+  <si>
+    <t>[{"type":"org","val":[{"id":"d495a1cc-0f75-11e7-9aa4-00163e007053","name":"测试部"}]},{"type":"employee","val":[{"id":"b8a23753-0f75-11e7-9aa4-00163e007053","name":"侯龙","mobile":"18612819427"}]}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"type":"org","val":[{"id":"d495a1cc-0f75-11e7-9aa4-00163e007053","name":"测试部"}]},{"type":"employee","val":[{"id":"b8a23753-0f75-11e7-9aa4-00163e007053","mobile":"18612819427","name":"侯龙"}]}]</t>
+  </si>
+  <si>
+    <t>枫丹丽舍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京市海淀区西三旗街道枫丹丽舍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"type":"org","val":[{"id":"c8e22cfe-0f75-11e7-9aa4-00163e007053","name":"开发部"}]}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Locations_Add_03</t>
+  </si>
+  <si>
+    <t>Method</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>API</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contentType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>application/json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apply_scope</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>modifyLocations</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addLocations</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新打卡地点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/attendance/v1/locations/{uuid}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Path</t>
-  </si>
-  <si>
-    <t>POST</t>
-  </si>
-  <si>
-    <t>新增打卡地点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/attendance/v1/locations</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>province</t>
-  </si>
-  <si>
-    <t>city</t>
-  </si>
-  <si>
-    <t>address</t>
-  </si>
-  <si>
-    <t>longitude</t>
-  </si>
-  <si>
-    <t>latitude</t>
-  </si>
-  <si>
-    <t>range</t>
-  </si>
-  <si>
-    <t>apply_scope</t>
-  </si>
-  <si>
-    <t>CaseID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Locations_Add_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兆维小区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京市</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京市朝阳区酒仙桥街道兆维小区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{"type":"all"}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{"type":"all","val":null}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Locations_Add_02</t>
-  </si>
-  <si>
-    <t>育新花园(育新花园西路)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京市海淀区西三旗街道育新花园育新花园(育新花园西路)</t>
-  </si>
-  <si>
-    <t>[{"type":"org","val":[{"id":"d495a1cc-0f75-11e7-9aa4-00163e007053","name":"测试部"}]},{"type":"employee","val":[{"id":"b8a23753-0f75-11e7-9aa4-00163e007053","name":"侯龙","mobile":"18612819427"}]}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{"type":"org","val":[{"id":"d495a1cc-0f75-11e7-9aa4-00163e007053","name":"测试部"}]},{"type":"employee","val":[{"id":"b8a23753-0f75-11e7-9aa4-00163e007053","mobile":"18612819427","name":"侯龙"}]}]</t>
-  </si>
-  <si>
-    <t>枫丹丽舍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京市海淀区西三旗街道枫丹丽舍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{"type":"org","val":[{"id":"c8e22cfe-0f75-11e7-9aa4-00163e007053","name":"开发部"}]}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Locations_Add_03</t>
-  </si>
-  <si>
-    <t>Method</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>API</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>locations</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>contentType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>application/json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apply_scope</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PUT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -152,9 +169,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0;[Red]0"/>
     <numFmt numFmtId="177" formatCode="0.000000_ "/>
+    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -230,7 +248,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -249,7 +267,13 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -532,54 +556,71 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.375" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.25" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="3" t="s">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>33</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -593,8 +634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -606,52 +647,52 @@
     <col min="5" max="5" width="53.625" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.625" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.625" style="5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.625" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="16.625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="I1" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="F2" s="4">
         <v>116.503805</v>
@@ -659,25 +700,25 @@
       <c r="G2" s="4">
         <v>39.960939000000003</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="5">
         <v>300</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="F3" s="4">
         <v>116.34536900000001</v>
@@ -685,25 +726,25 @@
       <c r="G3" s="4">
         <v>40.056871000000001</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="5">
         <v>100</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="F4" s="3">
         <v>116.36218700000001</v>
@@ -711,11 +752,11 @@
       <c r="G4" s="3">
         <v>40.063938999999998</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="5">
         <v>210</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -730,7 +771,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -742,52 +783,52 @@
     <col min="5" max="5" width="53.625" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.5" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.625" style="8" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.75" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="F2" s="4">
         <v>116.503805</v>
@@ -795,25 +836,25 @@
       <c r="G2" s="4">
         <v>39.960939000000003</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="8">
         <v>300</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="F3" s="4">
         <v>116.34536900000001</v>
@@ -821,25 +862,25 @@
       <c r="G3" s="4">
         <v>40.056871000000001</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="8">
         <v>100</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="F4" s="3">
         <v>116.36218700000001</v>
@@ -847,11 +888,11 @@
       <c r="G4" s="3">
         <v>40.063938999999998</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="8">
         <v>210</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/sources/case/Locations.xlsx
+++ b/sources/case/Locations.xlsx
@@ -5,36 +5,72 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sam\workspace\apis\sources\case\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sam\git\QiFeiApi\sources\case\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20340" windowHeight="7425" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7560" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
     <sheet name="Params" sheetId="2" r:id="rId2"/>
     <sheet name="Expectations" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="38">
+  <si>
+    <t>API</t>
+  </si>
   <si>
     <t>Description</t>
   </si>
   <si>
+    <t>Method</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>contentType</t>
+  </si>
+  <si>
+    <t>addLocations</t>
+  </si>
+  <si>
+    <t>新增打卡地点</t>
+  </si>
+  <si>
     <t>POST</t>
   </si>
   <si>
-    <t>新增打卡地点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/attendance/v1/locations</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>application/json</t>
+  </si>
+  <si>
+    <t>modifyLocations</t>
+  </si>
+  <si>
+    <t>更新打卡地点</t>
+  </si>
+  <si>
+    <t>PUT</t>
+  </si>
+  <si>
+    <t>/attendance/v1/locations/{uuid}</t>
+  </si>
+  <si>
+    <t>CaseID</t>
   </si>
   <si>
     <t>name</t>
@@ -61,108 +97,49 @@
     <t>apply_scope</t>
   </si>
   <si>
-    <t>CaseID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Locations_Add_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>兆维小区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>北京市</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>北京市朝阳区酒仙桥街道兆维小区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[{"type":"all"}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Locations_Add_02</t>
+  </si>
+  <si>
+    <t>育新花园(育新花园西路)</t>
+  </si>
+  <si>
+    <t>北京市海淀区西三旗街道育新花园育新花园(育新花园西路)</t>
+  </si>
+  <si>
+    <t>[{"type":"org","val":[{"id":"d495a1cc-0f75-11e7-9aa4-00163e007053","name":"测试部"}]},{"type":"employee","val":[{"id":"b8a23753-0f75-11e7-9aa4-00163e007053","name":"侯龙","mobile":"18612819427"}]}]</t>
+  </si>
+  <si>
+    <t>Locations_Add_03</t>
+  </si>
+  <si>
+    <t>枫丹丽舍</t>
+  </si>
+  <si>
+    <t>北京市海淀区西三旗街道枫丹丽舍</t>
+  </si>
+  <si>
+    <t>[{"type":"org","val":[{"id":"c8e22cfe-0f75-11e7-9aa4-00163e007053","name":"开发部"}]}]</t>
   </si>
   <si>
     <t>[{"type":"all","val":null}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Locations_Add_02</t>
-  </si>
-  <si>
-    <t>育新花园(育新花园西路)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京市海淀区西三旗街道育新花园育新花园(育新花园西路)</t>
-  </si>
-  <si>
-    <t>[{"type":"org","val":[{"id":"d495a1cc-0f75-11e7-9aa4-00163e007053","name":"测试部"}]},{"type":"employee","val":[{"id":"b8a23753-0f75-11e7-9aa4-00163e007053","name":"侯龙","mobile":"18612819427"}]}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[{"type":"org","val":[{"id":"d495a1cc-0f75-11e7-9aa4-00163e007053","name":"测试部"}]},{"type":"employee","val":[{"id":"b8a23753-0f75-11e7-9aa4-00163e007053","mobile":"18612819427","name":"侯龙"}]}]</t>
-  </si>
-  <si>
-    <t>枫丹丽舍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京市海淀区西三旗街道枫丹丽舍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{"type":"org","val":[{"id":"c8e22cfe-0f75-11e7-9aa4-00163e007053","name":"开发部"}]}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Locations_Add_03</t>
-  </si>
-  <si>
-    <t>Method</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>API</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>contentType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>application/json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apply_scope</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>modifyLocations</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>addLocations</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新打卡地点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/attendance/v1/locations/{uuid}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Path</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PUT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -170,11 +147,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
-    <numFmt numFmtId="176" formatCode="0;[Red]0"/>
-    <numFmt numFmtId="177" formatCode="0.000000_ "/>
-    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="180" formatCode="0;[Red]0"/>
+    <numFmt numFmtId="181" formatCode="0.000000_ "/>
+    <numFmt numFmtId="182" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -183,17 +168,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF404040"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -243,42 +228,67 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -559,74 +569,65 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection sqref="A1:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="15.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="3"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>30</v>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>31</v>
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>31</v>
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -634,135 +635,136 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="53.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.625" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="16.625" style="3"/>
+    <col min="1" max="1" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="53.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="183.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="2" t="s">
+      <c r="A1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="6">
+        <v>116.503805</v>
+      </c>
+      <c r="G2" s="6">
+        <v>39.960939000000003</v>
+      </c>
+      <c r="H2" s="7">
+        <v>300</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="6">
+        <v>116.34536900000001</v>
+      </c>
+      <c r="G3" s="6">
+        <v>40.056871000000001</v>
+      </c>
+      <c r="H3" s="7">
+        <v>100</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="4">
-        <v>116.503805</v>
-      </c>
-      <c r="G2" s="4">
-        <v>39.960939000000003</v>
-      </c>
-      <c r="H2" s="5">
-        <v>300</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="4">
-        <v>116.34536900000001</v>
-      </c>
-      <c r="G3" s="4">
-        <v>40.056871000000001</v>
-      </c>
-      <c r="H3" s="5">
-        <v>100</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="B4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="3">
+      <c r="D4" s="2"/>
+      <c r="E4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="5">
         <v>116.36218700000001</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="5">
         <v>40.063938999999998</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="7">
         <v>210</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>26</v>
+      <c r="I4" s="5" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -770,133 +772,135 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="53.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.625" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="53.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="183.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>11</v>
+      <c r="A1" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="4">
+      <c r="A2" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="13">
         <v>116.503805</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="13">
         <v>39.960939000000003</v>
       </c>
-      <c r="H2" s="8">
+      <c r="H2" s="15">
         <v>300</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>18</v>
+      <c r="I2" s="12" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="4">
+      <c r="A3" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="13">
         <v>116.34536900000001</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="13">
         <v>40.056871000000001</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="15">
         <v>100</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>23</v>
+      <c r="I3" s="12" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="A4" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="3">
+      <c r="D4" s="9"/>
+      <c r="E4" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="12">
         <v>116.36218700000001</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="12">
         <v>40.063938999999998</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="15">
         <v>210</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>26</v>
+      <c r="I4" s="12" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/sources/case/Locations.xlsx
+++ b/sources/case/Locations.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7560" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7560"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -147,9 +147,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
-    <numFmt numFmtId="180" formatCode="0;[Red]0"/>
-    <numFmt numFmtId="181" formatCode="0.000000_ "/>
-    <numFmt numFmtId="182" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="176" formatCode="0;[Red]0"/>
+    <numFmt numFmtId="177" formatCode="0.000000_ "/>
+    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -255,13 +255,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
@@ -276,13 +276,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="182" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -568,11 +568,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -772,7 +779,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>

--- a/sources/case/Locations.xlsx
+++ b/sources/case/Locations.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7560"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7560" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="43">
   <si>
     <t>API</t>
   </si>
@@ -67,9 +67,6 @@
     <t>PUT</t>
   </si>
   <si>
-    <t>/attendance/v1/locations/{uuid}</t>
-  </si>
-  <si>
     <t>CaseID</t>
   </si>
   <si>
@@ -140,6 +137,30 @@
   </si>
   <si>
     <t>[{"type":"org","val":[{"id":"d495a1cc-0f75-11e7-9aa4-00163e007053","name":"测试部"}]},{"type":"employee","val":[{"id":"b8a23753-0f75-11e7-9aa4-00163e007053","mobile":"18612819427","name":"侯龙"}]}]</t>
+  </si>
+  <si>
+    <t>/attendance/v1/locations/{LocationID}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>deleteLocations</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除打卡地点</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DELETE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>育新花园(育新花园西路)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京市海淀区西三旗街道育新花园(育新花园西路)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -236,7 +257,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -283,6 +304,9 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -566,10 +590,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -577,7 +601,7 @@
     <col min="1" max="1" width="15.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -626,15 +650,33 @@
         <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="12" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -642,8 +684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -652,7 +694,7 @@
     <col min="2" max="2" width="22.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="53.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="45.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.625" bestFit="1" customWidth="1"/>
@@ -661,46 +703,46 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>25</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F2" s="6">
         <v>116.503805</v>
@@ -712,22 +754,22 @@
         <v>300</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="5" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="F3" s="6">
         <v>116.34536900000001</v>
@@ -739,22 +781,22 @@
         <v>100</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>33</v>
-      </c>
       <c r="C4" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F4" s="5">
         <v>116.36218700000001</v>
@@ -766,7 +808,7 @@
         <v>210</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -780,7 +822,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -798,46 +840,46 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="C1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="D1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="E1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="F1" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="G1" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="H1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="I1" s="11" t="s">
         <v>21</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="C2" s="12" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>25</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F2" s="13">
         <v>116.503805</v>
@@ -849,22 +891,22 @@
         <v>300</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>29</v>
-      </c>
       <c r="C3" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F3" s="13">
         <v>116.34536900000001</v>
@@ -876,22 +918,22 @@
         <v>100</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>33</v>
-      </c>
       <c r="C4" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F4" s="12">
         <v>116.36218700000001</v>
@@ -903,7 +945,7 @@
         <v>210</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/sources/case/Locations.xlsx
+++ b/sources/case/Locations.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7560" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7560" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
     <sheet name="Params" sheetId="2" r:id="rId2"/>
     <sheet name="Expectations" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="52">
   <si>
     <t>API</t>
   </si>
@@ -160,6 +160,42 @@
   </si>
   <si>
     <t>北京市海淀区西三旗街道育新花园(育新花园西路)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>!!Int300</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>!!Int100</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>!!Int210</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>!!Double39.960939</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>!!Double40.056871</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>!!Double40.063939</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>!!Double116.503805</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>!!Double116.345369</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>!!Double116.362187</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -257,7 +293,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -302,9 +338,6 @@
     </xf>
     <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -657,13 +690,13 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="15" t="s">
         <v>40</v>
       </c>
       <c r="D4" s="12" t="s">
@@ -684,8 +717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -750,8 +783,8 @@
       <c r="G2" s="6">
         <v>39.960939000000003</v>
       </c>
-      <c r="H2" s="7">
-        <v>300</v>
+      <c r="H2" s="7" t="s">
+        <v>43</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>26</v>
@@ -777,8 +810,8 @@
       <c r="G3" s="6">
         <v>40.056871000000001</v>
       </c>
-      <c r="H3" s="7">
-        <v>100</v>
+      <c r="H3" s="7" t="s">
+        <v>44</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>30</v>
@@ -804,8 +837,8 @@
       <c r="G4" s="5">
         <v>40.063938999999998</v>
       </c>
-      <c r="H4" s="7">
-        <v>210</v>
+      <c r="H4" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>34</v>
@@ -821,8 +854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -832,8 +865,8 @@
     <col min="3" max="3" width="9.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="53.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="183.25" bestFit="1" customWidth="1"/>
   </cols>
@@ -881,14 +914,14 @@
       <c r="E2" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="13">
-        <v>116.503805</v>
-      </c>
-      <c r="G2" s="13">
-        <v>39.960939000000003</v>
-      </c>
-      <c r="H2" s="15">
-        <v>300</v>
+      <c r="F2" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>43</v>
       </c>
       <c r="I2" s="12" t="s">
         <v>35</v>
@@ -908,14 +941,14 @@
       <c r="E3" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="13">
-        <v>116.34536900000001</v>
-      </c>
-      <c r="G3" s="13">
-        <v>40.056871000000001</v>
-      </c>
-      <c r="H3" s="15">
-        <v>100</v>
+      <c r="F3" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>44</v>
       </c>
       <c r="I3" s="12" t="s">
         <v>36</v>
@@ -935,14 +968,14 @@
       <c r="E4" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="12">
-        <v>116.36218700000001</v>
-      </c>
-      <c r="G4" s="12">
-        <v>40.063938999999998</v>
-      </c>
-      <c r="H4" s="15">
-        <v>210</v>
+      <c r="F4" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="I4" s="12" t="s">
         <v>34</v>

--- a/sources/case/Locations.xlsx
+++ b/sources/case/Locations.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="46">
   <si>
     <t>API</t>
   </si>
@@ -163,10 +163,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>!!Int300</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>!!Int100</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -175,27 +171,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>!!Double39.960939</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>!!Double40.056871</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>!!Double40.063939</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>!!Double116.503805</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>!!Double116.345369</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>!!Double116.362187</t>
+    <t>!!Int300</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -718,7 +694,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -784,7 +760,7 @@
         <v>39.960939000000003</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>26</v>
@@ -811,7 +787,7 @@
         <v>40.056871000000001</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>30</v>
@@ -838,7 +814,7 @@
         <v>40.063938999999998</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>34</v>
@@ -854,8 +830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -865,10 +841,10 @@
     <col min="3" max="3" width="9.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="53.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="183.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -914,14 +890,14 @@
       <c r="E2" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>43</v>
+      <c r="F2" s="13">
+        <v>116.503805</v>
+      </c>
+      <c r="G2" s="13">
+        <v>39.960939000000003</v>
+      </c>
+      <c r="H2" s="7">
+        <v>300</v>
       </c>
       <c r="I2" s="12" t="s">
         <v>35</v>
@@ -941,14 +917,14 @@
       <c r="E3" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>44</v>
+      <c r="F3" s="13">
+        <v>116.34536900000001</v>
+      </c>
+      <c r="G3" s="13">
+        <v>40.056871000000001</v>
+      </c>
+      <c r="H3" s="7">
+        <v>100</v>
       </c>
       <c r="I3" s="12" t="s">
         <v>36</v>
@@ -968,14 +944,14 @@
       <c r="E4" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>45</v>
+      <c r="F4" s="12">
+        <v>116.36218700000001</v>
+      </c>
+      <c r="G4" s="12">
+        <v>40.063938999999998</v>
+      </c>
+      <c r="H4" s="7">
+        <v>210</v>
       </c>
       <c r="I4" s="12" t="s">
         <v>34</v>
